--- a/xlsx/政治学家_intext.xlsx
+++ b/xlsx/政治学家_intext.xlsx
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%AD%B8%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律學系</t>
+    <t>法律学系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E8%80%85</t>
